--- a/biology/Botanique/Institut_national_de_recherche_forestière/Institut_national_de_recherche_forestière.xlsx
+++ b/biology/Botanique/Institut_national_de_recherche_forestière/Institut_national_de_recherche_forestière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_national_de_recherche_foresti%C3%A8re</t>
+          <t>Institut_national_de_recherche_forestière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut national de recherche forestière (INRF) est un établissement public à caractère scientifique et technologique algérien de recherche situé dans la forêt de Baïnem, à El Hammamet dans la wilaya d'Alger.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_national_de_recherche_foresti%C3%A8re</t>
+          <t>Institut_national_de_recherche_forestière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création
-L'Institut national de recherche forestière ([INRF) a été créé en 1981 par le décret de création no 81-348 du 12 décembre 1981 en tant qu'établissement public à caractère administratif[1].
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Institut national de recherche forestière ([INRF) a été créé en 1981 par le décret de création no 81-348 du 12 décembre 1981 en tant qu'établissement public à caractère administratif.
 Il a été placé sous la double tutelle du ministère de l'Agriculture et du Développement rural, et du Ministère de l'Enseignement supérieur et de la Recherche scientifique.
-Évolution
-Le décret exécutif no 04-420 du 20 décembre 2004 a modifié le statut de l'INRF en établissement public à caractère scientifique et technologique[2].
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_national_de_recherche_foresti%C3%A8re</t>
+          <t>Institut_national_de_recherche_forestière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,25 +558,211 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le décret exécutif no 04-420 du 20 décembre 2004 a modifié le statut de l'INRF en établissement public à caractère scientifique et technologique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Institut_national_de_recherche_forestière</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conformément aux textes fixant les missions de l'INRF, les domaines de recherches ont été ventilés en 3 unités de recherche comportant chacune des divisions, des équipes de recherche et les moyens de recherche appropriés[3].
-Unités de recherche
-L'INRF abrite une unité de recherche en foresterie, une autre en biotechnologie forestière et reboisement, et une troisième en érosion éolienne et hydrique[4].
-Départements
-L'INRF comporte un département de l’administration et des finances ainsi qu'un département programmation, formation et communication[5].
-Structures
-Pépinière
-Une pépinière expérimentale est présente dans l'institut national de la recherche forestière (INRF).
-Cette pépinière qui produit une moyenne de 50 000 plants forestiers annuellement[6].
-Elle a pour vocation d'étudier, suivre et améliorer le comportement des espèces (feuillus et résineux), d'une part, et répondre à la demande des organismes, associations écologiques et autres institutions publiques ou privées en matière d'assistance scientifique, d'autre part[7].
-Arboretum
-L'arboretum sert d'appoint pour les pédagogues et les chercheurs en botanique[8].
-Cet arboretum qui s'étend sur environ 50 ha a été réservé à l’introduction d’espèces exotiques diverses (Eucalyptus, pins, chênes, cèdre, etc.)[4].
-On y recense plusieurs espèces d'arbres et d'arbustes autochtones ou exotiques[9]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conformément aux textes fixant les missions de l'INRF, les domaines de recherches ont été ventilés en 3 unités de recherche comportant chacune des divisions, des équipes de recherche et les moyens de recherche appropriés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Institut_national_de_recherche_forestière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Unités de recherche</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'INRF abrite une unité de recherche en foresterie, une autre en biotechnologie forestière et reboisement, et une troisième en érosion éolienne et hydrique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Institut_national_de_recherche_forestière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Départements</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'INRF comporte un département de l’administration et des finances ainsi qu'un département programmation, formation et communication.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Institut_national_de_recherche_forestière</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Structures</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pépinière</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une pépinière expérimentale est présente dans l'institut national de la recherche forestière (INRF).
+Cette pépinière qui produit une moyenne de 50 000 plants forestiers annuellement.
+Elle a pour vocation d'étudier, suivre et améliorer le comportement des espèces (feuillus et résineux), d'une part, et répondre à la demande des organismes, associations écologiques et autres institutions publiques ou privées en matière d'assistance scientifique, d'autre part.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Institut_national_de_recherche_forestière</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Structures</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Arboretum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arboretum sert d'appoint pour les pédagogues et les chercheurs en botanique.
+Cet arboretum qui s'étend sur environ 50 ha a été réservé à l’introduction d’espèces exotiques diverses (Eucalyptus, pins, chênes, cèdre, etc.).
+On y recense plusieurs espèces d'arbres et d'arbustes autochtones ou exotiques:
 Acacia :
 Acacia saligna ;
 Acacia melanoxylon ;
@@ -589,48 +790,167 @@
 Quercus :
 Quercus robur ;
 Quercus aegylops ;
-Serres
-Plusieurs serres sont implantées sur le site de l'INRF.
-Laboratoire mycologique
-Le laboratoire mycologique de l'INRF de la forêt de Baïnem étudie l'armillaire (Armillaria) qui est fréquemment observé sur des arbres dépérissants ou morts. Ce champignon Armillaria mellea a été retrouvé sur chêne zéen et le chêne-liège dans la forêt de Baïnem par l'équipe de pathologie du Département de Protection des Forêts de l'INRF.
-La présence de l'Hypoxylon mediterraneum ou maladie du charbon de la mère a aussi été constatée et confirmée par le laboratoire de pathologie de l'INRF sur des chênes-lièges dans la forêt de Baïnem[10].
-Herbier
-L'herbier de l'INRF de la forêt de Baïnem compte quelque 2 600 espèces et variétés florales, soit une collection qui permet de répertorier et d'identifier les espèces qui existent dans l'ensemble du couvert végétal en Algérie[11].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Institut_national_de_recherche_foresti%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Institut_national_de_recherche_forestière</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Structures</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Serres</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs serres sont implantées sur le site de l'INRF.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Institut_national_de_recherche_forestière</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Structures</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Laboratoire mycologique</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le laboratoire mycologique de l'INRF de la forêt de Baïnem étudie l'armillaire (Armillaria) qui est fréquemment observé sur des arbres dépérissants ou morts. Ce champignon Armillaria mellea a été retrouvé sur chêne zéen et le chêne-liège dans la forêt de Baïnem par l'équipe de pathologie du Département de Protection des Forêts de l'INRF.
+La présence de l'Hypoxylon mediterraneum ou maladie du charbon de la mère a aussi été constatée et confirmée par le laboratoire de pathologie de l'INRF sur des chênes-lièges dans la forêt de Baïnem.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Institut_national_de_recherche_forestière</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Structures</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Herbier</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'herbier de l'INRF de la forêt de Baïnem compte quelque 2 600 espèces et variétés florales, soit une collection qui permet de répertorier et d'identifier les espèces qui existent dans l'ensemble du couvert végétal en Algérie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Institut_national_de_recherche_forestière</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Stations régionales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">L'INRF a créé et équipé 13 stations régionales de recherche et d'expérimentation implantées dans les principaux écosystèmes forestiers, steppiques et sahariens.
 Ces stations régionales de recherche et d'expérimentation se répartissent comme suit :
 Station de recherche forestière d'Aïn Dheheb à Médéa.
 Station de recherche forestière de Aïn Sekhouna à Saïda.
-Station de recherche forestière de Baraki[12] à Alger.
+Station de recherche forestière de Baraki à Alger.
 Station de recherche forestière de Djelfa à Djelfa.
 Station de recherche forestière d'El Aouana à Jijel.
 Station de recherche forestière d'El Kala à El Tarf.
@@ -640,67 +960,71 @@
 Station de recherche forestière de Telagh à Sidi Bel Abbès.
 Station de recherche forestière de Ténès à Chlef.
 Station de recherche forestière de Yakouren à Tizi Ouzou.
-Ce sont des entités de recherche scientifique pluridisciplinaires, exerçant sous le contrôle, la coordination et le suivi des unités de recherche dont l’activité est dominante[13].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Institut_national_de_recherche_foresti%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Ce sont des entités de recherche scientifique pluridisciplinaires, exerçant sous le contrôle, la coordination et le suivi des unités de recherche dont l’activité est dominante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Institut_national_de_recherche_forestière</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les objectifs socio-économiques des recherches à l'INRF prennent en compte les orientations du plan d’action forestier élaboré par le Plan national de développement agricole (PNDA) du ministère de l’Agriculture et du Développement rural[14].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Institut_national_de_recherche_foresti%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les objectifs socio-économiques des recherches à l'INRF prennent en compte les orientations du plan d’action forestier élaboré par le Plan national de développement agricole (PNDA) du ministère de l’Agriculture et du Développement rural.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Institut_national_de_recherche_forestière</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_recherche_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Annales de la recherche forestière en Algérie.
 Revue : La forêt algérienne.
